--- a/docs/Manual runs.xlsx
+++ b/docs/Manual runs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EXT\SO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EXT\5I\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D1D60DFC-A41C-4B6B-9BBC-1337D2D1CEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFEC2CD-8E93-4122-A2CC-BF779A4A2401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="-528" windowWidth="23064" windowHeight="13872" activeTab="1"/>
+    <workbookView xWindow="-12" yWindow="-528" windowWidth="23064" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Small" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,20 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Big!$A$1:$AE$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Small!$A$1:$AE$18</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -438,10 +451,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -926,8 +939,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -1303,35 +1316,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AB3" sqref="AB3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AM15" sqref="AM15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="33.625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="33.59765625" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="19" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="94.125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="94.09765625" hidden="1" customWidth="1"/>
     <col min="7" max="8" width="0" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
     <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="7.125" customWidth="1"/>
-    <col min="12" max="12" width="6.75" customWidth="1"/>
-    <col min="13" max="13" width="8.125" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="7.75" customWidth="1"/>
-    <col min="15" max="15" width="6.75" customWidth="1"/>
+    <col min="11" max="11" width="7.09765625" customWidth="1"/>
+    <col min="12" max="12" width="6.69921875" customWidth="1"/>
+    <col min="13" max="13" width="8.09765625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="7.69921875" customWidth="1"/>
+    <col min="15" max="15" width="6.69921875" customWidth="1"/>
     <col min="16" max="20" width="0" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="13.25" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="11.25" customWidth="1"/>
-    <col min="28" max="28" width="12.375" customWidth="1"/>
-    <col min="29" max="29" width="9.625" customWidth="1"/>
-    <col min="30" max="30" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.19921875" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="11.19921875" hidden="1" customWidth="1"/>
+    <col min="25" max="26" width="0" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="12.3984375" customWidth="1"/>
+    <col min="29" max="29" width="9.59765625" customWidth="1"/>
+    <col min="30" max="30" width="14.69921875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1432,16 +1446,16 @@
     </row>
     <row r="2" spans="1:31">
       <c r="A2" s="1">
-        <v>45477.345173611109</v>
+        <v>45477.343923611108</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
         <v>30</v>
@@ -1465,7 +1479,7 @@
         <v>15</v>
       </c>
       <c r="L2" s="5">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>35</v>
@@ -1492,32 +1506,32 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="U2" s="4">
-        <v>1.41049176237882E-2</v>
+        <v>2.4508399511897601E-2</v>
       </c>
       <c r="V2" s="4">
-        <v>8.1946529681865207E-3</v>
+        <v>1.1369021339573701E-2</v>
       </c>
       <c r="W2" s="4">
         <v>1E-3</v>
       </c>
       <c r="X2" s="4">
-        <v>0.99548611111111096</v>
+        <v>0.98958333333333304</v>
       </c>
       <c r="Y2" s="4">
-        <v>0.99381248793365695</v>
+        <v>0.98669568489541903</v>
       </c>
       <c r="Z2" s="4">
-        <v>0.99548611111111096</v>
+        <v>0.98958333333333304</v>
       </c>
       <c r="AA2" s="4">
-        <v>0.99548611111111096</v>
+        <v>0.98958333333333304</v>
       </c>
       <c r="AB2" s="4">
-        <v>0.99281793309570998</v>
+        <v>0.98394876244549401</v>
       </c>
       <c r="AC2" s="4">
         <f>AB2-$AB$20</f>
-        <v>6.2466135903041953E-2</v>
+        <v>5.3596965252825979E-2</v>
       </c>
       <c r="AD2" t="s">
         <v>38</v>
@@ -1528,16 +1542,16 @@
     </row>
     <row r="3" spans="1:31">
       <c r="A3" s="1">
-        <v>45477.361550925925</v>
+        <v>45477.345173611109</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
         <v>30</v>
@@ -1558,7 +1572,7 @@
         <v>34</v>
       </c>
       <c r="K3" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L3" s="5">
         <v>32</v>
@@ -1570,7 +1584,7 @@
         <v>2</v>
       </c>
       <c r="O3" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>36</v>
@@ -1588,32 +1602,32 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="U3" s="4">
-        <v>1.52021658310938E-2</v>
+        <v>1.41049176237882E-2</v>
       </c>
       <c r="V3" s="4">
-        <v>8.0108393798502004E-3</v>
+        <v>8.1946529681865207E-3</v>
       </c>
       <c r="W3" s="4">
         <v>1E-3</v>
       </c>
       <c r="X3" s="4">
-        <v>0.99409722222222197</v>
+        <v>0.99548611111111096</v>
       </c>
       <c r="Y3" s="4">
-        <v>0.99210493444831804</v>
+        <v>0.99381248793365695</v>
       </c>
       <c r="Z3" s="4">
-        <v>0.99409722222222197</v>
+        <v>0.99548611111111096</v>
       </c>
       <c r="AA3" s="4">
-        <v>0.99409722222222197</v>
+        <v>0.99548611111111096</v>
       </c>
       <c r="AB3" s="4">
-        <v>0.99141293810858999</v>
+        <v>0.99281793309570998</v>
       </c>
       <c r="AC3" s="4">
         <f>AB3-$AB$20</f>
-        <v>6.1061140915921963E-2</v>
+        <v>6.2466135903041953E-2</v>
       </c>
       <c r="AD3" t="s">
         <v>38</v>
@@ -1624,16 +1638,16 @@
     </row>
     <row r="4" spans="1:31">
       <c r="A4" s="1">
-        <v>45477.383576388886</v>
+        <v>45477.347233796296</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
         <v>30</v>
@@ -1654,7 +1668,7 @@
         <v>34</v>
       </c>
       <c r="K4" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L4" s="5">
         <v>64</v>
@@ -1666,7 +1680,7 @@
         <v>2</v>
       </c>
       <c r="O4" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>36</v>
@@ -1684,32 +1698,32 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="U4" s="4">
-        <v>1.27601320084876E-2</v>
+        <v>1.55998790595428E-2</v>
       </c>
       <c r="V4" s="4">
-        <v>1.1837473650207601E-2</v>
+        <v>1.2919167190743701E-2</v>
       </c>
       <c r="W4" s="4">
         <v>1E-3</v>
       </c>
       <c r="X4" s="4">
-        <v>0.99409722222222197</v>
+        <v>0.99305555555555503</v>
       </c>
       <c r="Y4" s="4">
-        <v>0.99267632447771204</v>
+        <v>0.99100052411627404</v>
       </c>
       <c r="Z4" s="4">
-        <v>0.99409722222222197</v>
+        <v>0.99305555555555503</v>
       </c>
       <c r="AA4" s="4">
-        <v>0.99409722222222197</v>
+        <v>0.99305555555555503</v>
       </c>
       <c r="AB4" s="4">
-        <v>0.99037692246025499</v>
+        <v>0.98951130042796698</v>
       </c>
       <c r="AC4" s="4">
         <f>AB4-$AB$20</f>
-        <v>6.0025125267586965E-2</v>
+        <v>5.9159503235298949E-2</v>
       </c>
       <c r="AD4" t="s">
         <v>38</v>
@@ -1720,16 +1734,16 @@
     </row>
     <row r="5" spans="1:31">
       <c r="A5" s="1">
-        <v>45477.347233796296</v>
+        <v>45477.351585648146</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="E5" t="s">
         <v>30</v>
@@ -1750,10 +1764,10 @@
         <v>34</v>
       </c>
       <c r="K5" s="5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L5" s="5">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="M5" s="5" t="s">
         <v>35</v>
@@ -1780,32 +1794,32 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="U5" s="4">
-        <v>1.55998790595428E-2</v>
+        <v>2.6240596806423499E-2</v>
       </c>
       <c r="V5" s="4">
-        <v>1.2919167190743701E-2</v>
+        <v>1.0648756568006099E-2</v>
       </c>
       <c r="W5" s="4">
         <v>1E-3</v>
       </c>
       <c r="X5" s="4">
-        <v>0.99305555555555503</v>
+        <v>0.98611111111111105</v>
       </c>
       <c r="Y5" s="4">
-        <v>0.99100052411627404</v>
+        <v>0.98093661778013697</v>
       </c>
       <c r="Z5" s="4">
-        <v>0.99305555555555503</v>
+        <v>0.98611111111111105</v>
       </c>
       <c r="AA5" s="4">
-        <v>0.99305555555555503</v>
+        <v>0.98611111111111105</v>
       </c>
       <c r="AB5" s="4">
-        <v>0.98951130042796698</v>
+        <v>0.97591025154182998</v>
       </c>
       <c r="AC5" s="4">
         <f>AB5-$AB$20</f>
-        <v>5.9159503235298949E-2</v>
+        <v>4.5558454349161948E-2</v>
       </c>
       <c r="AD5" t="s">
         <v>38</v>
@@ -1816,16 +1830,16 @@
     </row>
     <row r="6" spans="1:31">
       <c r="A6" s="1">
-        <v>45477.368888888886</v>
+        <v>45477.359988425924</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="E6" t="s">
         <v>30</v>
@@ -1837,7 +1851,7 @@
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="I6">
         <v>0.01</v>
@@ -1849,7 +1863,7 @@
         <v>10</v>
       </c>
       <c r="L6" s="5">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="M6" s="5" t="s">
         <v>35</v>
@@ -1858,7 +1872,7 @@
         <v>2</v>
       </c>
       <c r="O6" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>36</v>
@@ -1876,32 +1890,32 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="U6" s="4">
-        <v>1.8295032780345801E-2</v>
+        <v>1.8662753439922301E-2</v>
       </c>
       <c r="V6" s="4">
-        <v>1.4799472560561499E-2</v>
+        <v>2.2600336737940999E-2</v>
       </c>
       <c r="W6" s="4">
         <v>1E-3</v>
       </c>
       <c r="X6" s="4">
-        <v>0.99270833333333297</v>
+        <v>0.98923611111111098</v>
       </c>
       <c r="Y6" s="4">
-        <v>0.98762938438835901</v>
+        <v>0.98607778474541596</v>
       </c>
       <c r="Z6" s="4">
-        <v>0.99270833333333297</v>
+        <v>0.98923611111111098</v>
       </c>
       <c r="AA6" s="4">
-        <v>0.99062499999999998</v>
+        <v>0.98923611111111098</v>
       </c>
       <c r="AB6" s="4">
-        <v>0.98559211314560802</v>
+        <v>0.98228965747081698</v>
       </c>
       <c r="AC6" s="4">
         <f>AB6-$AB$20</f>
-        <v>5.5240315952939989E-2</v>
+        <v>5.1937860278148951E-2</v>
       </c>
       <c r="AD6" t="s">
         <v>38</v>
@@ -1912,16 +1926,16 @@
     </row>
     <row r="7" spans="1:31">
       <c r="A7" s="1">
-        <v>45477.373171296298</v>
+        <v>45477.361550925925</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
         <v>30</v>
@@ -1945,7 +1959,7 @@
         <v>10</v>
       </c>
       <c r="L7" s="5">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>35</v>
@@ -1954,7 +1968,7 @@
         <v>2</v>
       </c>
       <c r="O7" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>36</v>
@@ -1972,32 +1986,32 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="U7" s="4">
-        <v>1.8480508052743899E-2</v>
+        <v>1.52021658310938E-2</v>
       </c>
       <c r="V7" s="4">
-        <v>1.3298704774524901E-2</v>
+        <v>8.0108393798502004E-3</v>
       </c>
       <c r="W7" s="4">
         <v>1E-3</v>
       </c>
       <c r="X7" s="4">
-        <v>0.99201388888888797</v>
+        <v>0.99409722222222197</v>
       </c>
       <c r="Y7" s="4">
-        <v>0.98996023552238699</v>
+        <v>0.99210493444831804</v>
       </c>
       <c r="Z7" s="4">
-        <v>0.99201388888888797</v>
+        <v>0.99409722222222197</v>
       </c>
       <c r="AA7" s="4">
-        <v>0.99201388888888797</v>
+        <v>0.99409722222222197</v>
       </c>
       <c r="AB7" s="4">
-        <v>0.98837221340119896</v>
+        <v>0.99141293810858999</v>
       </c>
       <c r="AC7" s="4">
         <f>AB7-$AB$20</f>
-        <v>5.8020416208530934E-2</v>
+        <v>6.1061140915921963E-2</v>
       </c>
       <c r="AD7" t="s">
         <v>38</v>
@@ -2008,16 +2022,16 @@
     </row>
     <row r="8" spans="1:31">
       <c r="A8" s="1">
-        <v>45477.391053240739</v>
+        <v>45477.363344907404</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="E8" t="s">
         <v>30</v>
@@ -2041,7 +2055,7 @@
         <v>10</v>
       </c>
       <c r="L8" s="5">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>35</v>
@@ -2050,7 +2064,7 @@
         <v>2</v>
       </c>
       <c r="O8" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>36</v>
@@ -2068,32 +2082,32 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="U8" s="4">
-        <v>2.2844623576545701E-2</v>
+        <v>3.1598083679111502E-2</v>
       </c>
       <c r="V8" s="4">
-        <v>1.32639981929267E-2</v>
+        <v>1.46461047061617E-2</v>
       </c>
       <c r="W8" s="4">
         <v>1E-3</v>
       </c>
       <c r="X8" s="4">
-        <v>0.99062499999999998</v>
+        <v>0.985069444444444</v>
       </c>
       <c r="Y8" s="4">
-        <v>0.98796921523736603</v>
+        <v>0.98080895784478095</v>
       </c>
       <c r="Z8" s="4">
-        <v>0.99062499999999998</v>
+        <v>0.985069444444444</v>
       </c>
       <c r="AA8" s="4">
-        <v>0.99062499999999998</v>
+        <v>0.985069444444444</v>
       </c>
       <c r="AB8" s="4">
-        <v>0.98584650842984101</v>
+        <v>0.97712288248520096</v>
       </c>
       <c r="AC8" s="4">
         <f>AB8-$AB$20</f>
-        <v>5.5494711237172978E-2</v>
+        <v>4.6771085292532932E-2</v>
       </c>
       <c r="AD8" t="s">
         <v>38</v>
@@ -2104,16 +2118,16 @@
     </row>
     <row r="9" spans="1:31">
       <c r="A9" s="1">
-        <v>45477.394270833334</v>
+        <v>45477.366956018515</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
         <v>30</v>
@@ -2137,7 +2151,7 @@
         <v>10</v>
       </c>
       <c r="L9" s="5">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="M9" s="5" t="s">
         <v>35</v>
@@ -2146,7 +2160,7 @@
         <v>2</v>
       </c>
       <c r="O9" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>36</v>
@@ -2164,32 +2178,32 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="U9" s="4">
-        <v>2.0449095058170799E-2</v>
+        <v>2.6655550534552298E-2</v>
       </c>
       <c r="V9" s="4">
-        <v>1.29296740297498E-2</v>
+        <v>1.47220192915829E-2</v>
       </c>
       <c r="W9" s="4">
         <v>1E-3</v>
       </c>
       <c r="X9" s="4">
-        <v>0.98993055555555498</v>
+        <v>0.98888888888888804</v>
       </c>
       <c r="Y9" s="4">
-        <v>0.98742040268145703</v>
+        <v>0.98413558523841005</v>
       </c>
       <c r="Z9" s="4">
-        <v>0.98993055555555498</v>
+        <v>0.98888888888888804</v>
       </c>
       <c r="AA9" s="4">
-        <v>0.98993055555555498</v>
+        <v>0.98888888888888804</v>
       </c>
       <c r="AB9" s="4">
-        <v>0.98491284446900396</v>
+        <v>0.98535206956221399</v>
       </c>
       <c r="AC9" s="4">
         <f>AB9-$AB$20</f>
-        <v>5.4561047276335928E-2</v>
+        <v>5.5000272369545966E-2</v>
       </c>
       <c r="AD9" t="s">
         <v>38</v>
@@ -2200,16 +2214,16 @@
     </row>
     <row r="10" spans="1:31">
       <c r="A10" s="1">
-        <v>45477.343923611108</v>
+        <v>45477.368888888886</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
         <v>30</v>
@@ -2221,7 +2235,7 @@
         <v>32</v>
       </c>
       <c r="H10" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="I10">
         <v>0.01</v>
@@ -2230,10 +2244,10 @@
         <v>34</v>
       </c>
       <c r="K10" s="5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L10" s="5">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="M10" s="5" t="s">
         <v>35</v>
@@ -2242,7 +2256,7 @@
         <v>2</v>
       </c>
       <c r="O10" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>36</v>
@@ -2260,32 +2274,32 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="U10" s="4">
-        <v>2.4508399511897601E-2</v>
+        <v>1.8295032780345801E-2</v>
       </c>
       <c r="V10" s="4">
-        <v>1.1369021339573701E-2</v>
+        <v>1.4799472560561499E-2</v>
       </c>
       <c r="W10" s="4">
         <v>1E-3</v>
       </c>
       <c r="X10" s="4">
-        <v>0.98958333333333304</v>
+        <v>0.99270833333333297</v>
       </c>
       <c r="Y10" s="4">
-        <v>0.98669568489541903</v>
+        <v>0.98762938438835901</v>
       </c>
       <c r="Z10" s="4">
-        <v>0.98958333333333304</v>
+        <v>0.99270833333333297</v>
       </c>
       <c r="AA10" s="4">
-        <v>0.98958333333333304</v>
+        <v>0.99062499999999998</v>
       </c>
       <c r="AB10" s="4">
-        <v>0.98394876244549401</v>
+        <v>0.98559211314560802</v>
       </c>
       <c r="AC10" s="4">
         <f>AB10-$AB$20</f>
-        <v>5.3596965252825979E-2</v>
+        <v>5.5240315952939989E-2</v>
       </c>
       <c r="AD10" t="s">
         <v>38</v>
@@ -2296,16 +2310,16 @@
     </row>
     <row r="11" spans="1:31">
       <c r="A11" s="1">
-        <v>45477.379513888889</v>
+        <v>45477.373171296298</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
         <v>30</v>
@@ -2329,7 +2343,7 @@
         <v>10</v>
       </c>
       <c r="L11" s="5">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="M11" s="5" t="s">
         <v>35</v>
@@ -2338,7 +2352,7 @@
         <v>2</v>
       </c>
       <c r="O11" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>36</v>
@@ -2356,32 +2370,32 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="U11" s="4">
-        <v>2.1698420756082502E-2</v>
+        <v>1.8480508052743899E-2</v>
       </c>
       <c r="V11" s="4">
-        <v>7.58356002904089E-3</v>
+        <v>1.3298704774524901E-2</v>
       </c>
       <c r="W11" s="4">
         <v>1E-3</v>
       </c>
       <c r="X11" s="4">
-        <v>0.98958333333333304</v>
+        <v>0.99201388888888797</v>
       </c>
       <c r="Y11" s="4">
-        <v>0.98695854092044399</v>
+        <v>0.98996023552238699</v>
       </c>
       <c r="Z11" s="4">
-        <v>0.98958333333333304</v>
+        <v>0.99201388888888797</v>
       </c>
       <c r="AA11" s="4">
-        <v>0.98958333333333304</v>
+        <v>0.99201388888888797</v>
       </c>
       <c r="AB11" s="4">
-        <v>0.98634092245203298</v>
+        <v>0.98837221340119896</v>
       </c>
       <c r="AC11" s="4">
         <f>AB11-$AB$20</f>
-        <v>5.5989125259364947E-2</v>
+        <v>5.8020416208530934E-2</v>
       </c>
       <c r="AD11" t="s">
         <v>38</v>
@@ -2392,16 +2406,16 @@
     </row>
     <row r="12" spans="1:31">
       <c r="A12" s="1">
-        <v>45477.359988425924</v>
+        <v>45477.377696759257</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E12" t="s">
         <v>30</v>
@@ -2434,7 +2448,7 @@
         <v>2</v>
       </c>
       <c r="O12" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P12" s="2" t="s">
         <v>36</v>
@@ -2452,32 +2466,32 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="U12" s="4">
-        <v>1.8662753439922301E-2</v>
+        <v>2.2007694713344399E-2</v>
       </c>
       <c r="V12" s="4">
-        <v>2.2600336737940999E-2</v>
+        <v>1.85061036906565E-2</v>
       </c>
       <c r="W12" s="4">
         <v>1E-3</v>
       </c>
       <c r="X12" s="4">
-        <v>0.98923611111111098</v>
+        <v>0.98819444444444404</v>
       </c>
       <c r="Y12" s="4">
-        <v>0.98607778474541596</v>
+        <v>0.98404388472799698</v>
       </c>
       <c r="Z12" s="4">
-        <v>0.98923611111111098</v>
+        <v>0.98819444444444404</v>
       </c>
       <c r="AA12" s="4">
-        <v>0.98923611111111098</v>
+        <v>0.98819444444444404</v>
       </c>
       <c r="AB12" s="4">
-        <v>0.98228965747081698</v>
+        <v>0.98012501038950295</v>
       </c>
       <c r="AC12" s="4">
         <f>AB12-$AB$20</f>
-        <v>5.1937860278148951E-2</v>
+        <v>4.977321319683492E-2</v>
       </c>
       <c r="AD12" t="s">
         <v>38</v>
@@ -2488,16 +2502,16 @@
     </row>
     <row r="13" spans="1:31">
       <c r="A13" s="1">
-        <v>45477.366956018515</v>
+        <v>45477.379513888889</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
         <v>30</v>
@@ -2521,7 +2535,7 @@
         <v>10</v>
       </c>
       <c r="L13" s="5">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="M13" s="5" t="s">
         <v>35</v>
@@ -2530,7 +2544,7 @@
         <v>2</v>
       </c>
       <c r="O13" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>36</v>
@@ -2548,32 +2562,32 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="U13" s="4">
-        <v>2.6655550534552298E-2</v>
+        <v>2.1698420756082502E-2</v>
       </c>
       <c r="V13" s="4">
-        <v>1.47220192915829E-2</v>
+        <v>7.58356002904089E-3</v>
       </c>
       <c r="W13" s="4">
         <v>1E-3</v>
       </c>
       <c r="X13" s="4">
-        <v>0.98888888888888804</v>
+        <v>0.98958333333333304</v>
       </c>
       <c r="Y13" s="4">
-        <v>0.98413558523841005</v>
+        <v>0.98695854092044399</v>
       </c>
       <c r="Z13" s="4">
-        <v>0.98888888888888804</v>
+        <v>0.98958333333333304</v>
       </c>
       <c r="AA13" s="4">
-        <v>0.98888888888888804</v>
+        <v>0.98958333333333304</v>
       </c>
       <c r="AB13" s="4">
-        <v>0.98535206956221399</v>
+        <v>0.98634092245203298</v>
       </c>
       <c r="AC13" s="4">
         <f>AB13-$AB$20</f>
-        <v>5.5000272369545966E-2</v>
+        <v>5.5989125259364947E-2</v>
       </c>
       <c r="AD13" t="s">
         <v>38</v>
@@ -2584,16 +2598,16 @@
     </row>
     <row r="14" spans="1:31">
       <c r="A14" s="1">
-        <v>45477.377696759257</v>
+        <v>45477.383576388886</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="E14" t="s">
         <v>30</v>
@@ -2617,7 +2631,7 @@
         <v>10</v>
       </c>
       <c r="L14" s="5">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="M14" s="5" t="s">
         <v>35</v>
@@ -2644,32 +2658,32 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="U14" s="4">
-        <v>2.2007694713344399E-2</v>
+        <v>1.27601320084876E-2</v>
       </c>
       <c r="V14" s="4">
-        <v>1.85061036906565E-2</v>
+        <v>1.1837473650207601E-2</v>
       </c>
       <c r="W14" s="4">
         <v>1E-3</v>
       </c>
       <c r="X14" s="4">
-        <v>0.98819444444444404</v>
+        <v>0.99409722222222197</v>
       </c>
       <c r="Y14" s="4">
-        <v>0.98404388472799698</v>
+        <v>0.99267632447771204</v>
       </c>
       <c r="Z14" s="4">
-        <v>0.98819444444444404</v>
+        <v>0.99409722222222197</v>
       </c>
       <c r="AA14" s="4">
-        <v>0.98819444444444404</v>
+        <v>0.99409722222222197</v>
       </c>
       <c r="AB14" s="4">
-        <v>0.98012501038950295</v>
+        <v>0.99037692246025499</v>
       </c>
       <c r="AC14" s="4">
         <f>AB14-$AB$20</f>
-        <v>4.977321319683492E-2</v>
+        <v>6.0025125267586965E-2</v>
       </c>
       <c r="AD14" t="s">
         <v>38</v>
@@ -2680,16 +2694,16 @@
     </row>
     <row r="15" spans="1:31">
       <c r="A15" s="1">
-        <v>45477.401550925926</v>
+        <v>45477.389236111114</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E15" t="s">
         <v>30</v>
@@ -2701,7 +2715,7 @@
         <v>32</v>
       </c>
       <c r="H15" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="I15">
         <v>0.01</v>
@@ -2722,7 +2736,7 @@
         <v>2</v>
       </c>
       <c r="O15" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P15" s="2" t="s">
         <v>36</v>
@@ -2740,32 +2754,32 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="U15" s="4">
-        <v>2.5955478751307499E-2</v>
+        <v>2.6916232111398101E-2</v>
       </c>
       <c r="V15" s="4">
-        <v>2.5311678447234601E-2</v>
+        <v>2.0805526829450301E-2</v>
       </c>
       <c r="W15" s="4">
         <v>1E-3</v>
       </c>
       <c r="X15" s="4">
-        <v>0.98680555555555505</v>
+        <v>0.98159722222222201</v>
       </c>
       <c r="Y15" s="4">
-        <v>0.981958579512753</v>
+        <v>0.97601051594760102</v>
       </c>
       <c r="Z15" s="4">
-        <v>0.98680555555555505</v>
+        <v>0.98159722222222201</v>
       </c>
       <c r="AA15" s="4">
-        <v>0.98680555555555505</v>
+        <v>0.98159722222222201</v>
       </c>
       <c r="AB15" s="4">
-        <v>0.97974183581906704</v>
+        <v>0.97036595690943495</v>
       </c>
       <c r="AC15" s="4">
         <f>AB15-$AB$20</f>
-        <v>4.9390038626399013E-2</v>
+        <v>4.0014159716766917E-2</v>
       </c>
       <c r="AD15" t="s">
         <v>38</v>
@@ -2776,16 +2790,16 @@
     </row>
     <row r="16" spans="1:31">
       <c r="A16" s="1">
-        <v>45477.351585648146</v>
+        <v>45477.391053240739</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="E16" t="s">
         <v>30</v>
@@ -2809,7 +2823,7 @@
         <v>10</v>
       </c>
       <c r="L16" s="5">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="M16" s="5" t="s">
         <v>35</v>
@@ -2818,7 +2832,7 @@
         <v>2</v>
       </c>
       <c r="O16" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P16" s="2" t="s">
         <v>36</v>
@@ -2836,32 +2850,32 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="U16" s="4">
-        <v>2.6240596806423499E-2</v>
+        <v>2.2844623576545701E-2</v>
       </c>
       <c r="V16" s="4">
-        <v>1.0648756568006099E-2</v>
+        <v>1.32639981929267E-2</v>
       </c>
       <c r="W16" s="4">
         <v>1E-3</v>
       </c>
       <c r="X16" s="4">
-        <v>0.98611111111111105</v>
+        <v>0.99062499999999998</v>
       </c>
       <c r="Y16" s="4">
-        <v>0.98093661778013697</v>
+        <v>0.98796921523736603</v>
       </c>
       <c r="Z16" s="4">
-        <v>0.98611111111111105</v>
+        <v>0.99062499999999998</v>
       </c>
       <c r="AA16" s="4">
-        <v>0.98611111111111105</v>
+        <v>0.99062499999999998</v>
       </c>
       <c r="AB16" s="4">
-        <v>0.97591025154182998</v>
+        <v>0.98584650842984101</v>
       </c>
       <c r="AC16" s="4">
         <f>AB16-$AB$20</f>
-        <v>4.5558454349161948E-2</v>
+        <v>5.5494711237172978E-2</v>
       </c>
       <c r="AD16" t="s">
         <v>38</v>
@@ -2872,16 +2886,16 @@
     </row>
     <row r="17" spans="1:31">
       <c r="A17" s="1">
-        <v>45477.363344907404</v>
+        <v>45477.394270833334</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D17" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
         <v>30</v>
@@ -2914,7 +2928,7 @@
         <v>2</v>
       </c>
       <c r="O17" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>36</v>
@@ -2932,32 +2946,32 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="U17" s="4">
-        <v>3.1598083679111502E-2</v>
+        <v>2.0449095058170799E-2</v>
       </c>
       <c r="V17" s="4">
-        <v>1.46461047061617E-2</v>
+        <v>1.29296740297498E-2</v>
       </c>
       <c r="W17" s="4">
         <v>1E-3</v>
       </c>
       <c r="X17" s="4">
-        <v>0.985069444444444</v>
+        <v>0.98993055555555498</v>
       </c>
       <c r="Y17" s="4">
-        <v>0.98080895784478095</v>
+        <v>0.98742040268145703</v>
       </c>
       <c r="Z17" s="4">
-        <v>0.985069444444444</v>
+        <v>0.98993055555555498</v>
       </c>
       <c r="AA17" s="4">
-        <v>0.985069444444444</v>
+        <v>0.98993055555555498</v>
       </c>
       <c r="AB17" s="4">
-        <v>0.97712288248520096</v>
+        <v>0.98491284446900396</v>
       </c>
       <c r="AC17" s="4">
         <f>AB17-$AB$20</f>
-        <v>4.6771085292532932E-2</v>
+        <v>5.4561047276335928E-2</v>
       </c>
       <c r="AD17" t="s">
         <v>38</v>
@@ -2968,16 +2982,16 @@
     </row>
     <row r="18" spans="1:31">
       <c r="A18" s="1">
-        <v>45477.389236111114</v>
+        <v>45477.401550925926</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D18" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E18" t="s">
         <v>30</v>
@@ -2989,7 +3003,7 @@
         <v>32</v>
       </c>
       <c r="H18" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="I18">
         <v>0.01</v>
@@ -3010,7 +3024,7 @@
         <v>2</v>
       </c>
       <c r="O18" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>36</v>
@@ -3028,32 +3042,32 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="U18" s="4">
-        <v>2.6916232111398101E-2</v>
+        <v>2.5955478751307499E-2</v>
       </c>
       <c r="V18" s="4">
-        <v>2.0805526829450301E-2</v>
+        <v>2.5311678447234601E-2</v>
       </c>
       <c r="W18" s="4">
         <v>1E-3</v>
       </c>
       <c r="X18" s="4">
-        <v>0.98159722222222201</v>
+        <v>0.98680555555555505</v>
       </c>
       <c r="Y18" s="4">
-        <v>0.97601051594760102</v>
+        <v>0.981958579512753</v>
       </c>
       <c r="Z18" s="4">
-        <v>0.98159722222222201</v>
+        <v>0.98680555555555505</v>
       </c>
       <c r="AA18" s="4">
-        <v>0.98159722222222201</v>
+        <v>0.98680555555555505</v>
       </c>
       <c r="AB18" s="4">
-        <v>0.97036595690943495</v>
+        <v>0.97974183581906704</v>
       </c>
       <c r="AC18" s="4">
         <f>AB18-$AB$20</f>
-        <v>4.0014159716766917E-2</v>
+        <v>4.9390038626399013E-2</v>
       </c>
       <c r="AD18" t="s">
         <v>38</v>
@@ -3197,9 +3211,9 @@
       <c r="AC32" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AE18">
+  <autoFilter ref="A1:AE18" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AE18">
-      <sortCondition descending="1" ref="X1:X18"/>
+      <sortCondition ref="A1:A18"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="AB19:AC19 AB32:AC32 AB2:AB18">
@@ -3232,45 +3246,45 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AE14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AB14" sqref="A1:AB14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.59765625" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="18" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="11.25" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="94.125" hidden="1" customWidth="1"/>
-    <col min="7" max="8" width="9.125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="6.625" customWidth="1"/>
-    <col min="10" max="10" width="8.25" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="6.125" customWidth="1"/>
-    <col min="12" max="12" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="6.75" customWidth="1"/>
-    <col min="15" max="15" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.75" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="8.875" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="7.125" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="6.875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11.19921875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="94.09765625" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="9.09765625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="6.59765625" customWidth="1"/>
+    <col min="10" max="10" width="8.19921875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="6.09765625" customWidth="1"/>
+    <col min="12" max="12" width="6.19921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.3984375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="6.69921875" customWidth="1"/>
+    <col min="15" max="15" width="5.69921875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.69921875" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="8.8984375" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="7.09765625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="6.8984375" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="12" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.75" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="13.875" customWidth="1"/>
-    <col min="25" max="25" width="9" customWidth="1"/>
-    <col min="26" max="26" width="9.875" customWidth="1"/>
-    <col min="27" max="27" width="9.375" customWidth="1"/>
-    <col min="28" max="28" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.375" customWidth="1"/>
-    <col min="30" max="30" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="21.875" customWidth="1"/>
+    <col min="21" max="21" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.8984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.69921875" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="13.8984375" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="9" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="9.8984375" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="9.3984375" customWidth="1"/>
+    <col min="28" max="28" width="17.09765625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.3984375" customWidth="1"/>
+    <col min="30" max="30" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -3370,16 +3384,16 @@
     </row>
     <row r="2" spans="1:31">
       <c r="A2" s="1">
-        <v>45477.446481481478</v>
+        <v>45477.405787037038</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="E2" t="s">
         <v>30</v>
@@ -3403,7 +3417,7 @@
         <v>10</v>
       </c>
       <c r="L2" s="5">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>35</v>
@@ -3412,7 +3426,7 @@
         <v>5</v>
       </c>
       <c r="O2" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>36</v>
@@ -3430,32 +3444,32 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="U2" s="4">
-        <v>0.106612248342699</v>
+        <v>0.111688552028942</v>
       </c>
       <c r="V2" s="4">
-        <v>3.6608299595635503E-2</v>
+        <v>6.4982216902700396E-2</v>
       </c>
       <c r="W2" s="4">
         <v>1E-3</v>
       </c>
       <c r="X2" s="4">
-        <v>0.98442068713450204</v>
+        <v>0.97697368421052599</v>
       </c>
       <c r="Y2" s="4">
-        <v>0.924758942041226</v>
+        <v>0.89318507454777496</v>
       </c>
       <c r="Z2" s="4">
-        <v>0.98442068713450204</v>
+        <v>0.97697368421052599</v>
       </c>
       <c r="AA2" s="4">
-        <v>0.98442068713450204</v>
+        <v>0.97697368421052599</v>
       </c>
       <c r="AB2" s="4">
-        <v>0.95278460091772299</v>
+        <v>0.94529160892196296</v>
       </c>
       <c r="AC2" s="3">
         <f>AB2-$AB$14</f>
-        <v>5.5779626422415962E-2</v>
+        <v>4.8286634426655928E-2</v>
       </c>
       <c r="AD2" t="s">
         <v>38</v>
@@ -3466,16 +3480,16 @@
     </row>
     <row r="3" spans="1:31">
       <c r="A3" s="1">
-        <v>45477.420474537037</v>
+        <v>45477.411481481482</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E3" t="s">
         <v>30</v>
@@ -3499,7 +3513,7 @@
         <v>10</v>
       </c>
       <c r="L3" s="5">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="M3" s="5" t="s">
         <v>35</v>
@@ -3526,32 +3540,32 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="U3" s="4">
-        <v>0.104541691828326</v>
+        <v>0.100661108288051</v>
       </c>
       <c r="V3" s="4">
-        <v>3.2297786321065003E-2</v>
+        <v>4.0996153730798297E-2</v>
       </c>
       <c r="W3" s="4">
         <v>1E-3</v>
       </c>
       <c r="X3" s="4">
-        <v>0.984375</v>
+        <v>0.98364400584795297</v>
       </c>
       <c r="Y3" s="4">
-        <v>0.92238301528664601</v>
+        <v>0.92307732854869595</v>
       </c>
       <c r="Z3" s="4">
-        <v>0.984375</v>
+        <v>0.98364400584795297</v>
       </c>
       <c r="AA3" s="4">
-        <v>0.984375</v>
+        <v>0.98364400584795297</v>
       </c>
       <c r="AB3" s="4">
-        <v>0.95126505730538302</v>
+        <v>0.95274103499862395</v>
       </c>
       <c r="AC3" s="3">
         <f>AB3-$AB$14</f>
-        <v>5.4260082810075994E-2</v>
+        <v>5.573606050331692E-2</v>
       </c>
       <c r="AD3" t="s">
         <v>38</v>
@@ -3562,16 +3576,16 @@
     </row>
     <row r="4" spans="1:31">
       <c r="A4" s="1">
-        <v>45477.411481481482</v>
+        <v>45477.420474537037</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E4" t="s">
         <v>30</v>
@@ -3595,7 +3609,7 @@
         <v>10</v>
       </c>
       <c r="L4" s="5">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="M4" s="5" t="s">
         <v>35</v>
@@ -3622,32 +3636,32 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="U4" s="4">
-        <v>0.100661108288051</v>
+        <v>0.104541691828326</v>
       </c>
       <c r="V4" s="4">
-        <v>4.0996153730798297E-2</v>
+        <v>3.2297786321065003E-2</v>
       </c>
       <c r="W4" s="4">
         <v>1E-3</v>
       </c>
       <c r="X4" s="4">
-        <v>0.98364400584795297</v>
+        <v>0.984375</v>
       </c>
       <c r="Y4" s="4">
-        <v>0.92307732854869595</v>
+        <v>0.92238301528664601</v>
       </c>
       <c r="Z4" s="4">
-        <v>0.98364400584795297</v>
+        <v>0.984375</v>
       </c>
       <c r="AA4" s="4">
-        <v>0.98364400584795297</v>
+        <v>0.984375</v>
       </c>
       <c r="AB4" s="4">
-        <v>0.95274103499862395</v>
+        <v>0.95126505730538302</v>
       </c>
       <c r="AC4" s="3">
         <f>AB4-$AB$14</f>
-        <v>5.573606050331692E-2</v>
+        <v>5.4260082810075994E-2</v>
       </c>
       <c r="AD4" t="s">
         <v>38</v>
@@ -3658,16 +3672,16 @@
     </row>
     <row r="5" spans="1:31">
       <c r="A5" s="1">
-        <v>45477.583240740743</v>
+        <v>45477.438657407409</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E5" t="s">
         <v>30</v>
@@ -3700,7 +3714,7 @@
         <v>5</v>
       </c>
       <c r="O5" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>36</v>
@@ -3718,32 +3732,32 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="U5" s="4">
-        <v>0.10982673627148</v>
+        <v>0.10687152798269101</v>
       </c>
       <c r="V5" s="4">
-        <v>5.5565639094316603E-2</v>
+        <v>6.02062788241109E-2</v>
       </c>
       <c r="W5" s="4">
         <v>1E-3</v>
       </c>
       <c r="X5" s="4">
-        <v>0.98355263157894701</v>
+        <v>0.97884685672514604</v>
       </c>
       <c r="Y5" s="4">
-        <v>0.91926498465903805</v>
+        <v>0.89439604290595098</v>
       </c>
       <c r="Z5" s="4">
-        <v>0.98355263157894701</v>
+        <v>0.97884685672514604</v>
       </c>
       <c r="AA5" s="4">
-        <v>0.98355263157894701</v>
+        <v>0.97884685672514604</v>
       </c>
       <c r="AB5" s="4">
-        <v>0.94385596170757802</v>
+        <v>0.94882464108313103</v>
       </c>
       <c r="AC5" s="3">
         <f>AB5-$AB$14</f>
-        <v>4.6850987212270989E-2</v>
+        <v>5.1819666587823998E-2</v>
       </c>
       <c r="AD5" t="s">
         <v>38</v>
@@ -3754,16 +3768,16 @@
     </row>
     <row r="6" spans="1:31">
       <c r="A6" s="1">
-        <v>45477.497106481482</v>
+        <v>45477.446481481478</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="E6" t="s">
         <v>30</v>
@@ -3787,7 +3801,7 @@
         <v>10</v>
       </c>
       <c r="L6" s="5">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="M6" s="5" t="s">
         <v>35</v>
@@ -3796,7 +3810,7 @@
         <v>5</v>
       </c>
       <c r="O6" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>36</v>
@@ -3814,32 +3828,32 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="U6" s="4">
-        <v>0.105722329072529</v>
+        <v>0.106612248342699</v>
       </c>
       <c r="V6" s="4">
-        <v>5.2231862074185301E-2</v>
+        <v>3.6608299595635503E-2</v>
       </c>
       <c r="W6" s="4">
         <v>1E-3</v>
       </c>
       <c r="X6" s="4">
-        <v>0.98209064327485296</v>
+        <v>0.98442068713450204</v>
       </c>
       <c r="Y6" s="4">
-        <v>0.90831123087447996</v>
+        <v>0.924758942041226</v>
       </c>
       <c r="Z6" s="4">
-        <v>0.98209064327485296</v>
+        <v>0.98442068713450204</v>
       </c>
       <c r="AA6" s="4">
-        <v>0.98209064327485296</v>
+        <v>0.98442068713450204</v>
       </c>
       <c r="AB6" s="4">
-        <v>0.94888435526953596</v>
+        <v>0.95278460091772299</v>
       </c>
       <c r="AC6" s="3">
         <f>AB6-$AB$14</f>
-        <v>5.1879380774228934E-2</v>
+        <v>5.5779626422415962E-2</v>
       </c>
       <c r="AD6" t="s">
         <v>38</v>
@@ -3850,16 +3864,16 @@
     </row>
     <row r="7" spans="1:31">
       <c r="A7" s="1">
-        <v>45477.488229166665</v>
+        <v>45477.461481481485</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="C7" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="E7" t="s">
         <v>30</v>
@@ -3883,7 +3897,7 @@
         <v>10</v>
       </c>
       <c r="L7" s="5">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>35</v>
@@ -3892,7 +3906,7 @@
         <v>5</v>
       </c>
       <c r="O7" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>36</v>
@@ -3910,32 +3924,32 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="U7" s="4">
-        <v>0.119145689890682</v>
+        <v>0.11127019696858299</v>
       </c>
       <c r="V7" s="4">
-        <v>5.3890551751464899E-2</v>
+        <v>3.0954825763500102E-2</v>
       </c>
       <c r="W7" s="4">
         <v>1E-3</v>
       </c>
       <c r="X7" s="4">
-        <v>0.98108552631578905</v>
+        <v>0.98085709064327398</v>
       </c>
       <c r="Y7" s="4">
-        <v>0.90535551263065694</v>
+        <v>0.904842944550873</v>
       </c>
       <c r="Z7" s="4">
-        <v>0.98108552631578905</v>
+        <v>0.98085709064327398</v>
       </c>
       <c r="AA7" s="4">
-        <v>0.98108552631578905</v>
+        <v>0.98085709064327398</v>
       </c>
       <c r="AB7" s="4">
-        <v>0.93516095913833297</v>
+        <v>0.94921730778614999</v>
       </c>
       <c r="AC7" s="3">
         <f>AB7-$AB$14</f>
-        <v>3.8155984643025942E-2</v>
+        <v>5.221233329084296E-2</v>
       </c>
       <c r="AD7" t="s">
         <v>38</v>
@@ -3946,16 +3960,16 @@
     </row>
     <row r="8" spans="1:31">
       <c r="A8" s="1">
-        <v>45477.461481481485</v>
+        <v>45477.488229166665</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="E8" t="s">
         <v>30</v>
@@ -3979,7 +3993,7 @@
         <v>10</v>
       </c>
       <c r="L8" s="5">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>35</v>
@@ -3988,7 +4002,7 @@
         <v>5</v>
       </c>
       <c r="O8" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>36</v>
@@ -4006,32 +4020,32 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="U8" s="4">
-        <v>0.11127019696858299</v>
+        <v>0.119145689890682</v>
       </c>
       <c r="V8" s="4">
-        <v>3.0954825763500102E-2</v>
+        <v>5.3890551751464899E-2</v>
       </c>
       <c r="W8" s="4">
         <v>1E-3</v>
       </c>
       <c r="X8" s="4">
-        <v>0.98085709064327398</v>
+        <v>0.98108552631578905</v>
       </c>
       <c r="Y8" s="4">
-        <v>0.904842944550873</v>
+        <v>0.90535551263065694</v>
       </c>
       <c r="Z8" s="4">
-        <v>0.98085709064327398</v>
+        <v>0.98108552631578905</v>
       </c>
       <c r="AA8" s="4">
-        <v>0.98085709064327398</v>
+        <v>0.98108552631578905</v>
       </c>
       <c r="AB8" s="4">
-        <v>0.94921730778614999</v>
+        <v>0.93516095913833297</v>
       </c>
       <c r="AC8" s="3">
         <f>AB8-$AB$14</f>
-        <v>5.221233329084296E-2</v>
+        <v>3.8155984643025942E-2</v>
       </c>
       <c r="AD8" t="s">
         <v>38</v>
@@ -4042,16 +4056,16 @@
     </row>
     <row r="9" spans="1:31">
       <c r="A9" s="1">
-        <v>45477.597141203703</v>
+        <v>45477.497106481482</v>
       </c>
       <c r="B9" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C9" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="E9" t="s">
         <v>30</v>
@@ -4075,7 +4089,7 @@
         <v>10</v>
       </c>
       <c r="L9" s="5">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="M9" s="5" t="s">
         <v>35</v>
@@ -4084,7 +4098,7 @@
         <v>5</v>
       </c>
       <c r="O9" s="5">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>36</v>
@@ -4102,32 +4116,32 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="U9" s="4">
-        <v>0.11624421552674601</v>
+        <v>0.105722329072529</v>
       </c>
       <c r="V9" s="4">
-        <v>9.8649200008622401E-2</v>
+        <v>5.2231862074185301E-2</v>
       </c>
       <c r="W9" s="4">
         <v>1E-3</v>
       </c>
       <c r="X9" s="4">
-        <v>0.98017178362573099</v>
+        <v>0.98209064327485296</v>
       </c>
       <c r="Y9" s="4">
-        <v>0.90461769737338005</v>
+        <v>0.90831123087447996</v>
       </c>
       <c r="Z9" s="4">
-        <v>0.98017178362573099</v>
+        <v>0.98209064327485296</v>
       </c>
       <c r="AA9" s="4">
-        <v>0.98017178362573099</v>
+        <v>0.98209064327485296</v>
       </c>
       <c r="AB9" s="4">
-        <v>0.93802539355923398</v>
+        <v>0.94888435526953596</v>
       </c>
       <c r="AC9" s="3">
         <f>AB9-$AB$14</f>
-        <v>4.1020419063926949E-2</v>
+        <v>5.1879380774228934E-2</v>
       </c>
       <c r="AD9" t="s">
         <v>38</v>
@@ -4234,16 +4248,16 @@
     </row>
     <row r="11" spans="1:31">
       <c r="A11" s="1">
-        <v>45477.438657407409</v>
+        <v>45477.583240740743</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D11" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E11" t="s">
         <v>30</v>
@@ -4276,7 +4290,7 @@
         <v>5</v>
       </c>
       <c r="O11" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>36</v>
@@ -4294,32 +4308,32 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="U11" s="4">
-        <v>0.10687152798269101</v>
+        <v>0.10982673627148</v>
       </c>
       <c r="V11" s="4">
-        <v>6.02062788241109E-2</v>
+        <v>5.5565639094316603E-2</v>
       </c>
       <c r="W11" s="4">
         <v>1E-3</v>
       </c>
       <c r="X11" s="4">
-        <v>0.97884685672514604</v>
+        <v>0.98355263157894701</v>
       </c>
       <c r="Y11" s="4">
-        <v>0.89439604290595098</v>
+        <v>0.91926498465903805</v>
       </c>
       <c r="Z11" s="4">
-        <v>0.97884685672514604</v>
+        <v>0.98355263157894701</v>
       </c>
       <c r="AA11" s="4">
-        <v>0.97884685672514604</v>
+        <v>0.98355263157894701</v>
       </c>
       <c r="AB11" s="4">
-        <v>0.94882464108313103</v>
+        <v>0.94385596170757802</v>
       </c>
       <c r="AC11" s="3">
         <f>AB11-$AB$14</f>
-        <v>5.1819666587823998E-2</v>
+        <v>4.6850987212270989E-2</v>
       </c>
       <c r="AD11" t="s">
         <v>38</v>
@@ -4330,16 +4344,16 @@
     </row>
     <row r="12" spans="1:31">
       <c r="A12" s="1">
-        <v>45477.405787037038</v>
+        <v>45477.597141203703</v>
       </c>
       <c r="B12" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C12" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="D12" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="E12" t="s">
         <v>30</v>
@@ -4363,7 +4377,7 @@
         <v>10</v>
       </c>
       <c r="L12" s="5">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="M12" s="5" t="s">
         <v>35</v>
@@ -4372,7 +4386,7 @@
         <v>5</v>
       </c>
       <c r="O12" s="5">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="P12" s="2" t="s">
         <v>36</v>
@@ -4390,32 +4404,32 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="U12" s="4">
-        <v>0.111688552028942</v>
+        <v>0.11624421552674601</v>
       </c>
       <c r="V12" s="4">
-        <v>6.4982216902700396E-2</v>
+        <v>9.8649200008622401E-2</v>
       </c>
       <c r="W12" s="4">
         <v>1E-3</v>
       </c>
       <c r="X12" s="4">
-        <v>0.97697368421052599</v>
+        <v>0.98017178362573099</v>
       </c>
       <c r="Y12" s="4">
-        <v>0.89318507454777496</v>
+        <v>0.90461769737338005</v>
       </c>
       <c r="Z12" s="4">
-        <v>0.97697368421052599</v>
+        <v>0.98017178362573099</v>
       </c>
       <c r="AA12" s="4">
-        <v>0.97697368421052599</v>
+        <v>0.98017178362573099</v>
       </c>
       <c r="AB12" s="4">
-        <v>0.94529160892196296</v>
+        <v>0.93802539355923398</v>
       </c>
       <c r="AC12" s="3">
         <f>AB12-$AB$14</f>
-        <v>4.8286634426655928E-2</v>
+        <v>4.1020419063926949E-2</v>
       </c>
       <c r="AD12" t="s">
         <v>38</v>
@@ -4517,9 +4531,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AE12">
+  <autoFilter ref="A1:AE12" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AE12">
-      <sortCondition descending="1" ref="X1:X12"/>
+      <sortCondition ref="A1:A12"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="AB2:AB12">
